--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>10.97417746020299</v>
+        <v>21.66356742867001</v>
       </c>
       <c r="R2">
-        <v>10.97417746020299</v>
+        <v>194.97210685803</v>
       </c>
       <c r="S2">
-        <v>0.0005088165805447046</v>
+        <v>0.0007675417689918324</v>
       </c>
       <c r="T2">
-        <v>0.0005088165805447046</v>
+        <v>0.0007701861949267311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>1325.859270520849</v>
+        <v>1610.219314851289</v>
       </c>
       <c r="R3">
-        <v>1325.859270520849</v>
+        <v>14491.9738336616</v>
       </c>
       <c r="S3">
-        <v>0.06147332524522856</v>
+        <v>0.05705018739204262</v>
       </c>
       <c r="T3">
-        <v>0.06147332524522856</v>
+        <v>0.05724674346394021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H4">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I4">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J4">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N4">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O4">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P4">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q4">
-        <v>2239.647567670967</v>
+        <v>3035.459187939221</v>
       </c>
       <c r="R4">
-        <v>2239.647567670967</v>
+        <v>27319.132691453</v>
       </c>
       <c r="S4">
-        <v>0.103841023269413</v>
+        <v>0.1075465397139541</v>
       </c>
       <c r="T4">
-        <v>0.103841023269413</v>
+        <v>0.1079170718078645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H5">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I5">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J5">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.559365894940731</v>
+        <v>0.324361</v>
       </c>
       <c r="N5">
-        <v>0.559365894940731</v>
+        <v>0.648722</v>
       </c>
       <c r="O5">
-        <v>0.0030684288305113</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P5">
-        <v>0.0030684288305113</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q5">
-        <v>15.84797235768936</v>
+        <v>7.292027432449001</v>
       </c>
       <c r="R5">
-        <v>15.84797235768936</v>
+        <v>43.75216459469401</v>
       </c>
       <c r="S5">
-        <v>0.000734789566949225</v>
+        <v>0.0002583570620798021</v>
       </c>
       <c r="T5">
-        <v>0.000734789566949225</v>
+        <v>0.0001728314563145809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H6">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I6">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J6">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.5805052460525</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N6">
-        <v>67.5805052460525</v>
+        <v>2.89089</v>
       </c>
       <c r="O6">
-        <v>0.3707161493989182</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P6">
-        <v>0.3707161493989182</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q6">
-        <v>1914.693027846474</v>
+        <v>28.42882692183001</v>
       </c>
       <c r="R6">
-        <v>1914.693027846474</v>
+        <v>255.85944229647</v>
       </c>
       <c r="S6">
-        <v>0.08877454030195804</v>
+        <v>0.001007235404685314</v>
       </c>
       <c r="T6">
-        <v>0.08877454030195804</v>
+        <v>0.001010705651562167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.3320318614859</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>28.3320318614859</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2394676909702955</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J7">
-        <v>0.2394676909702955</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.157299768955</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N7">
-        <v>114.157299768955</v>
+        <v>214.875363</v>
       </c>
       <c r="O7">
-        <v>0.6262154217705705</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P7">
-        <v>0.6262154217705705</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q7">
-        <v>3234.30825427523</v>
+        <v>2113.070543843728</v>
       </c>
       <c r="R7">
-        <v>3234.30825427523</v>
+        <v>19017.63489459355</v>
       </c>
       <c r="S7">
-        <v>0.1499583611013882</v>
+        <v>0.07486624299375237</v>
       </c>
       <c r="T7">
-        <v>0.1499583611013882</v>
+        <v>0.07512418105343761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H8">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J8">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559365894940731</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N8">
-        <v>0.559365894940731</v>
+        <v>405.066185</v>
       </c>
       <c r="O8">
-        <v>0.0030684288305113</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P8">
-        <v>0.0030684288305113</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q8">
-        <v>16.70343455457075</v>
+        <v>3983.394894046806</v>
       </c>
       <c r="R8">
-        <v>16.70343455457075</v>
+        <v>35850.55404642125</v>
       </c>
       <c r="S8">
-        <v>0.0007744529814858436</v>
+        <v>0.1411319706985777</v>
       </c>
       <c r="T8">
-        <v>0.0007744529814858436</v>
+        <v>0.1416182153026322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H9">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J9">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>67.5805052460525</v>
+        <v>0.324361</v>
       </c>
       <c r="N9">
-        <v>67.5805052460525</v>
+        <v>0.648722</v>
       </c>
       <c r="O9">
-        <v>0.3707161493989182</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P9">
-        <v>0.3707161493989182</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q9">
-        <v>2018.046786105668</v>
+        <v>9.569235836567668</v>
       </c>
       <c r="R9">
-        <v>2018.046786105668</v>
+        <v>57.41541501940601</v>
       </c>
       <c r="S9">
-        <v>0.09356652640338511</v>
+        <v>0.0003390387213963173</v>
       </c>
       <c r="T9">
-        <v>0.09356652640338511</v>
+        <v>0.0002268045452067399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.8613746487719</v>
+        <v>42.765269</v>
       </c>
       <c r="H10">
-        <v>29.8613746487719</v>
+        <v>128.295807</v>
       </c>
       <c r="I10">
-        <v>0.2523939854120047</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J10">
-        <v>0.2523939854120047</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>114.157299768955</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N10">
-        <v>114.157299768955</v>
+        <v>2.89089</v>
       </c>
       <c r="O10">
-        <v>0.6262154217705705</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P10">
-        <v>0.6262154217705705</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q10">
-        <v>3408.893897292927</v>
+        <v>41.20989616647</v>
       </c>
       <c r="R10">
-        <v>3408.893897292927</v>
+        <v>370.88906549823</v>
       </c>
       <c r="S10">
-        <v>0.1580530060271338</v>
+        <v>0.001460069617237737</v>
       </c>
       <c r="T10">
-        <v>0.1580530060271338</v>
+        <v>0.001465100022250942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.328016970482</v>
+        <v>42.765269</v>
       </c>
       <c r="H11">
-        <v>39.328016970482</v>
+        <v>128.295807</v>
       </c>
       <c r="I11">
-        <v>0.3324078364871638</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J11">
-        <v>0.3324078364871638</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.559365894940731</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N11">
-        <v>0.559365894940731</v>
+        <v>214.875363</v>
       </c>
       <c r="O11">
-        <v>0.0030684288305113</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P11">
-        <v>0.0030684288305113</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q11">
-        <v>21.99875140893792</v>
+        <v>3063.067566722548</v>
       </c>
       <c r="R11">
-        <v>21.99875140893792</v>
+        <v>27567.60810050294</v>
       </c>
       <c r="S11">
-        <v>0.001019969788965099</v>
+        <v>0.1085247065814437</v>
       </c>
       <c r="T11">
-        <v>0.001019969788965099</v>
+        <v>0.1088986087718589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.328016970482</v>
+        <v>42.765269</v>
       </c>
       <c r="H12">
-        <v>39.328016970482</v>
+        <v>128.295807</v>
       </c>
       <c r="I12">
-        <v>0.3324078364871638</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J12">
-        <v>0.3324078364871638</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.5805052460525</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N12">
-        <v>67.5805052460525</v>
+        <v>405.066185</v>
       </c>
       <c r="O12">
-        <v>0.3707161493989182</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P12">
-        <v>0.3707161493989182</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q12">
-        <v>2657.8072571905</v>
+        <v>5774.254788109587</v>
       </c>
       <c r="R12">
-        <v>2657.8072571905</v>
+        <v>51968.29309298629</v>
       </c>
       <c r="S12">
-        <v>0.1232289531725466</v>
+        <v>0.204582266945093</v>
       </c>
       <c r="T12">
-        <v>0.1232289531725466</v>
+        <v>0.2052871180351394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.328016970482</v>
+        <v>42.765269</v>
       </c>
       <c r="H13">
-        <v>39.328016970482</v>
+        <v>128.295807</v>
       </c>
       <c r="I13">
-        <v>0.3324078364871638</v>
+        <v>0.3150585073376215</v>
       </c>
       <c r="J13">
-        <v>0.3324078364871638</v>
+        <v>0.3159795984589671</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>114.157299768955</v>
+        <v>0.324361</v>
       </c>
       <c r="N13">
-        <v>114.157299768955</v>
+        <v>0.648722</v>
       </c>
       <c r="O13">
-        <v>0.6262154217705705</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P13">
-        <v>0.6262154217705705</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q13">
-        <v>4489.580222617863</v>
+        <v>13.871385418109</v>
       </c>
       <c r="R13">
-        <v>4489.580222617863</v>
+        <v>83.228312508654</v>
       </c>
       <c r="S13">
-        <v>0.2081589135256521</v>
+        <v>0.0004914641938470672</v>
       </c>
       <c r="T13">
-        <v>0.2081589135256521</v>
+        <v>0.0003287716297177256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17216047989684</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H14">
-        <v>1.17216047989684</v>
+        <v>119.406669</v>
       </c>
       <c r="I14">
-        <v>0.009907322035349725</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J14">
-        <v>0.009907322035349725</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N14">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O14">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P14">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q14">
-        <v>0.6556665958516525</v>
+        <v>38.35461614949001</v>
       </c>
       <c r="R14">
-        <v>0.6556665958516525</v>
+        <v>345.19154534541</v>
       </c>
       <c r="S14">
-        <v>3.039991256642698E-05</v>
+        <v>0.001358906838650332</v>
       </c>
       <c r="T14">
-        <v>3.039991256642698E-05</v>
+        <v>0.001363588705660591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17216047989684</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H15">
-        <v>1.17216047989684</v>
+        <v>119.406669</v>
       </c>
       <c r="I15">
-        <v>0.009907322035349725</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J15">
-        <v>0.009907322035349725</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N15">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O15">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P15">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q15">
-        <v>79.2151974608838</v>
+        <v>2850.839038443983</v>
       </c>
       <c r="R15">
-        <v>79.2151974608838</v>
+        <v>25657.55134599585</v>
       </c>
       <c r="S15">
-        <v>0.003672804275799903</v>
+        <v>0.1010054343950038</v>
       </c>
       <c r="T15">
-        <v>0.003672804275799903</v>
+        <v>0.1013534302970779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17216047989684</v>
+        <v>39.80222300000001</v>
       </c>
       <c r="H16">
-        <v>1.17216047989684</v>
+        <v>119.406669</v>
       </c>
       <c r="I16">
-        <v>0.009907322035349725</v>
+        <v>0.2932292783449848</v>
       </c>
       <c r="J16">
-        <v>0.009907322035349725</v>
+        <v>0.2940865504976542</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N16">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O16">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P16">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q16">
-        <v>133.8106752809057</v>
+        <v>5374.178208376418</v>
       </c>
       <c r="R16">
-        <v>133.8106752809057</v>
+        <v>48367.60387538777</v>
       </c>
       <c r="S16">
-        <v>0.006204117846983395</v>
+        <v>0.1904075246386062</v>
       </c>
       <c r="T16">
-        <v>0.006204117846983395</v>
+        <v>0.1910635392252985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H17">
+        <v>119.406669</v>
+      </c>
+      <c r="I17">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J17">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>12.910288854503</v>
+      </c>
+      <c r="R17">
+        <v>77.46173312701801</v>
+      </c>
+      <c r="S17">
+        <v>0.0004574124727244485</v>
+      </c>
+      <c r="T17">
+        <v>0.0003059922696171593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.1870385</v>
+      </c>
+      <c r="H18">
+        <v>2.374077</v>
+      </c>
+      <c r="I18">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J18">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P18">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q18">
+        <v>1.143865909755</v>
+      </c>
+      <c r="R18">
+        <v>6.863195458530001</v>
+      </c>
+      <c r="S18">
+        <v>4.052725234445403E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.71112544272429E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.1870385</v>
+      </c>
+      <c r="H19">
+        <v>2.374077</v>
+      </c>
+      <c r="I19">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J19">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N19">
+        <v>214.875363</v>
+      </c>
+      <c r="O19">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P19">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q19">
+        <v>85.02177619415851</v>
+      </c>
+      <c r="R19">
+        <v>510.130657164951</v>
+      </c>
+      <c r="S19">
+        <v>0.003012327711849002</v>
+      </c>
+      <c r="T19">
+        <v>0.002015137427034296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.1870385</v>
+      </c>
+      <c r="H20">
+        <v>2.374077</v>
+      </c>
+      <c r="I20">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J20">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N20">
+        <v>405.066185</v>
+      </c>
+      <c r="O20">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P20">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q20">
+        <v>160.2763855477075</v>
+      </c>
+      <c r="R20">
+        <v>961.6583132862449</v>
+      </c>
+      <c r="S20">
+        <v>0.005678603992438417</v>
+      </c>
+      <c r="T20">
+        <v>0.003798779061606509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.1870385</v>
+      </c>
+      <c r="H21">
+        <v>2.374077</v>
+      </c>
+      <c r="I21">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J21">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.324361</v>
+      </c>
+      <c r="N21">
+        <v>0.648722</v>
+      </c>
+      <c r="O21">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P21">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q21">
+        <v>0.3850289948985001</v>
+      </c>
+      <c r="R21">
+        <v>1.540115979594</v>
+      </c>
+      <c r="S21">
+        <v>1.364160528179846E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.083824425886101E-06</v>
       </c>
     </row>
   </sheetData>
